--- a/data/okc_zone_data_scenario.xlsx
+++ b/data/okc_zone_data_scenario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bec060903d587f1/Desktop/AdHocDesignProjects/ARcGisRumbles/OKC_Workspace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nursh\OneDrive - Harvard University\Desktop\Travel Behavior and Forecasting\TravelBehaviorForecasting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C267B8-91FA-4AB4-8991-1DE8432316DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDDAD8B-DC7A-48AA-A255-77F30B25790D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="15238" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="okc_zone_data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="916">
   <si>
     <t>GEOID</t>
   </si>
@@ -2791,9 +2791,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -3296,20 +3296,20 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3672,13 +3672,13 @@
       <selection activeCell="BM1" sqref="BM1:BP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="2" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" s="3" customFormat="1" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>611</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>12014.5683375717</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>635</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>3542.4228755499598</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>887</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>3476.6497738542898</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>876</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>3786.3523866382998</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>670</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>3313.55558306697</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>717</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>3511.40989199766</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>653</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>3094.8512656186499</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>846</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>2985.9156286195198</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>652</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>2972.4407196408702</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>636</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>3050.6989681086302</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>685</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>3123.2944156435201</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>627</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>2866.3840078335402</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>524</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>2663.6084982672701</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>787</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>2644.3772205968298</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>696</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>2579.0313007945902</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>813</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>5495.7927412584704</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>632</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>2552.7346499929599</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>705</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>3283.4587931722599</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>497</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>2824.4010603864999</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:73" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>702</v>
       </c>
@@ -96510,11 +96510,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
@@ -98335,23 +98335,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2649FE21-9280-4F09-91E4-4CAE3A514AB4}">
-  <dimension ref="A1:BU28"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="29" max="29" width="14" customWidth="1"/>
-    <col min="65" max="65" width="13.88671875" customWidth="1"/>
-    <col min="69" max="69" width="15.6640625" style="9" customWidth="1"/>
-    <col min="74" max="74" width="23.77734375" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -98362,193 +98363,70 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="X1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>732</v>
       </c>
@@ -98558,190 +98436,76 @@
       <c r="C2" s="5">
         <v>171</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>551</v>
+      </c>
       <c r="E2" s="5">
-        <v>551</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>592</v>
+      </c>
+      <c r="F2" s="5">
+        <v>97</v>
+      </c>
       <c r="G2" s="5">
-        <v>592</v>
-      </c>
-      <c r="H2" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1477</v>
+      </c>
       <c r="I2" s="5">
-        <v>97</v>
-      </c>
-      <c r="J2" s="5"/>
+        <v>605</v>
+      </c>
+      <c r="J2" s="5">
+        <v>465</v>
+      </c>
       <c r="K2" s="5">
-        <v>66</v>
-      </c>
-      <c r="L2" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="L2" s="5">
+        <v>259</v>
+      </c>
       <c r="M2" s="5">
-        <v>1477</v>
-      </c>
-      <c r="N2" s="5"/>
+        <v>418</v>
+      </c>
+      <c r="N2" s="5">
+        <v>146</v>
+      </c>
       <c r="O2" s="5">
-        <v>605</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>465</v>
+        <v>32003</v>
+      </c>
+      <c r="P2" s="17">
+        <f t="shared" ref="P2:P8" si="0">V2*T2/1000000</f>
+        <v>1954.0000000000027</v>
+      </c>
+      <c r="Q2" s="18">
+        <f>P2*$B$14</f>
+        <v>46.000000000000064</v>
+      </c>
+      <c r="R2" s="17">
+        <f>P2*$B$15</f>
+        <v>106.00000000000014</v>
       </c>
       <c r="S2" s="5">
-        <v>148</v>
-      </c>
-      <c r="U2" s="5">
-        <v>259</v>
-      </c>
-      <c r="W2" s="5">
-        <v>418</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>146</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>32003</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>9046</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>1477</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>299</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>253</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>205</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>32</v>
-      </c>
-      <c r="AJ2" s="5">
-        <v>34</v>
-      </c>
-      <c r="AK2" s="5">
-        <v>110</v>
-      </c>
-      <c r="AL2" s="5">
-        <v>77</v>
-      </c>
-      <c r="AM2" s="5">
-        <v>40</v>
-      </c>
-      <c r="AN2" s="5">
-        <v>36</v>
-      </c>
-      <c r="AO2" s="5">
-        <v>58</v>
-      </c>
-      <c r="AP2" s="5">
-        <v>40</v>
-      </c>
-      <c r="AQ2" s="5">
-        <v>20</v>
-      </c>
-      <c r="AR2" s="5">
-        <v>21</v>
-      </c>
-      <c r="AS2" s="5">
-        <v>19</v>
-      </c>
-      <c r="AT2" s="5">
-        <v>21</v>
-      </c>
-      <c r="AU2" s="5">
-        <v>136</v>
-      </c>
-      <c r="AV2" s="5">
-        <v>77</v>
-      </c>
-      <c r="AW2" s="5">
-        <v>49</v>
-      </c>
-      <c r="AX2" s="5">
-        <v>39</v>
-      </c>
-      <c r="AY2" s="5">
-        <v>46</v>
-      </c>
-      <c r="AZ2" s="5">
-        <v>44</v>
-      </c>
-      <c r="BA2" s="5">
-        <v>37</v>
-      </c>
-      <c r="BB2" s="5">
-        <v>33</v>
-      </c>
-      <c r="BC2" s="5">
-        <v>168</v>
-      </c>
-      <c r="BD2" s="5">
-        <v>107</v>
-      </c>
-      <c r="BE2" s="5">
-        <v>213</v>
-      </c>
-      <c r="BF2" s="5">
-        <v>199</v>
-      </c>
-      <c r="BG2" s="5">
-        <v>67</v>
-      </c>
-      <c r="BH2" s="5">
-        <v>48</v>
-      </c>
-      <c r="BI2" s="5">
-        <v>86</v>
-      </c>
-      <c r="BJ2" s="5">
-        <v>49</v>
-      </c>
-      <c r="BK2" s="5">
-        <v>143</v>
-      </c>
-      <c r="BL2" s="5">
-        <v>72</v>
-      </c>
-      <c r="BM2" s="18">
-        <f>BS2*BQ2/1000000</f>
-        <v>1954.0000000000027</v>
-      </c>
-      <c r="BN2" s="19">
-        <f>BM2*$B$14</f>
-        <v>46.000000000000064</v>
-      </c>
-      <c r="BO2" s="18">
-        <f>BM2*$B$15</f>
-        <v>106.00000000000014</v>
-      </c>
-      <c r="BP2" s="5">
-        <f>BM2*$B$16</f>
+        <f>P2*$B$16</f>
         <v>1802.0000000000025</v>
       </c>
-      <c r="BQ2" s="8">
+      <c r="T2" s="8">
         <v>1298510</v>
       </c>
-      <c r="BR2" s="8">
-        <f>BT2*BQ2/1000000</f>
+      <c r="U2" s="8">
+        <f t="shared" ref="U2:U8" si="1">W2*T2/1000000</f>
         <v>2623.0000000000005</v>
       </c>
-      <c r="BS2" s="7">
+      <c r="V2" s="7">
         <v>1504.80165728412</v>
       </c>
-      <c r="BT2" s="6">
+      <c r="W2" s="6">
         <v>2020.00754711169</v>
       </c>
-      <c r="BU2" s="7">
+      <c r="X2" s="7">
         <v>3524.80920439581</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>762</v>
       </c>
@@ -98749,91 +98513,93 @@
         <v>343</v>
       </c>
       <c r="C3" s="13">
-        <f>M3*$B$17</f>
-        <v>27109.01778576984</v>
+        <f>H3*$B$17</f>
+        <v>3872.7168265385485</v>
+      </c>
+      <c r="D3" s="13">
+        <f>H3*$B$18</f>
+        <v>12478.754218846434</v>
       </c>
       <c r="E3" s="13">
-        <f>M3*$B$18</f>
-        <v>87351.279531925044</v>
+        <f>H3*$B$19</f>
+        <v>13407.30035854281</v>
+      </c>
+      <c r="F3" s="13">
+        <f>H3*$B$20</f>
+        <v>2196.804281720697</v>
       </c>
       <c r="G3" s="13">
-        <f>M3*$B$19</f>
-        <v>93851.10250979969</v>
-      </c>
-      <c r="I3" s="13">
-        <f>M3*$B$20</f>
-        <v>15377.629972044881</v>
-      </c>
-      <c r="K3" s="13">
-        <f>M3*$B$21</f>
-        <v>10463.129671700641</v>
-      </c>
-      <c r="M3" s="17">
-        <f>BR3*$B$22</f>
-        <v>234152.1594712401</v>
-      </c>
-      <c r="O3" s="17">
-        <f>M3*$B$23</f>
-        <v>95912.021990589201</v>
-      </c>
-      <c r="Q3" s="17">
-        <f>M3*$B$24</f>
-        <v>73717.504505163612</v>
-      </c>
-      <c r="S3" s="17">
-        <f>M3*$B$25</f>
-        <v>23462.775627449922</v>
-      </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17">
-        <f>M3*$B$26</f>
-        <v>41059.857348037367</v>
-      </c>
-      <c r="W3" s="17">
-        <f>M3*$B$27</f>
-        <v>66266.487920770727</v>
-      </c>
-      <c r="Y3" s="17">
-        <f>M3*$B$28</f>
-        <v>23145.711091943842</v>
-      </c>
-      <c r="AC3">
+        <f>H3*$B$21</f>
+        <v>1494.7328102429487</v>
+      </c>
+      <c r="H3" s="16">
+        <f>U3*$B$22</f>
+        <v>33450.308495891441</v>
+      </c>
+      <c r="I3" s="16">
+        <f>H3*$B$23</f>
+        <v>13701.717427227029</v>
+      </c>
+      <c r="J3" s="16">
+        <f>H3*$B$24</f>
+        <v>10531.072072166229</v>
+      </c>
+      <c r="K3" s="16">
+        <f>H3*$B$25</f>
+        <v>3351.8250896357026</v>
+      </c>
+      <c r="L3" s="16">
+        <f>H3*$B$26</f>
+        <v>5865.6939068624806</v>
+      </c>
+      <c r="M3" s="16">
+        <f>H3*$B$27</f>
+        <v>9466.641131538674</v>
+      </c>
+      <c r="N3" s="16">
+        <f>H3*$B$28</f>
+        <v>3306.5301559919776</v>
+      </c>
+      <c r="O3">
         <v>29034</v>
       </c>
-      <c r="BM3" s="13">
-        <f>BS3*BQ3/1000000</f>
-        <v>309772.05118944059</v>
-      </c>
-      <c r="BN3" s="14">
-        <f t="shared" ref="BN3:BN8" si="0">BM3*$B$14</f>
-        <v>7292.4843166398505</v>
-      </c>
-      <c r="BO3" s="13">
-        <f t="shared" ref="BO3:BO8" si="1">BM3*$B$15</f>
-        <v>16804.420381822263</v>
-      </c>
-      <c r="BP3" s="15">
-        <f t="shared" ref="BP3:BP8" si="2">BM3*$B$16</f>
-        <v>285675.14649097848</v>
-      </c>
-      <c r="BQ3" s="9">
+      <c r="P3" s="13">
+        <f t="shared" si="0"/>
+        <v>44253.150169920089</v>
+      </c>
+      <c r="Q3" s="14">
+        <f>P3*$B$14</f>
+        <v>1041.7834738056929</v>
+      </c>
+      <c r="R3" s="13">
+        <f>P3*$B$15</f>
+        <v>2400.6314831174664</v>
+      </c>
+      <c r="S3" s="15">
+        <f>P3*$B$16</f>
+        <v>40810.735212996929</v>
+      </c>
+      <c r="T3" s="9">
         <v>205855735</v>
       </c>
-      <c r="BR3" s="10">
-        <f>BT3*BQ3/1000000</f>
-        <v>415830.13831622404</v>
-      </c>
-      <c r="BS3" s="7">
-        <v>1504.80165728412</v>
-      </c>
-      <c r="BT3" s="6">
-        <v>2020.00754711169</v>
-      </c>
-      <c r="BU3" s="7">
-        <v>3524.80920439581</v>
+      <c r="U3" s="10">
+        <f t="shared" si="1"/>
+        <v>59404.305473746295</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" ref="V3:X8" si="2">V$2/$W$11</f>
+        <v>214.97166532630285</v>
+      </c>
+      <c r="W3" s="7">
+        <f t="shared" si="2"/>
+        <v>288.5725067302414</v>
+      </c>
+      <c r="X3" s="7">
+        <f t="shared" si="2"/>
+        <v>503.54417205654426</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>750</v>
       </c>
@@ -98841,91 +98607,93 @@
         <v>331</v>
       </c>
       <c r="C4" s="13">
-        <f t="shared" ref="C4:C8" si="3">M4*$B$17</f>
-        <v>45222.858245219519</v>
+        <f>H4*$B$17</f>
+        <v>6460.4083207456442</v>
+      </c>
+      <c r="D4" s="13">
+        <f>H4*$B$18</f>
+        <v>20816.871255735965</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E7" si="4">M4*$B$18</f>
-        <v>145718.09879015179</v>
+        <f>H4*$B$19</f>
+        <v>22365.858046090183</v>
+      </c>
+      <c r="F4" s="13">
+        <f>H4*$B$20</f>
+        <v>3664.6760649843714</v>
       </c>
       <c r="G4" s="13">
-        <f t="shared" ref="G4:G8" si="5">M4*$B$19</f>
-        <v>156561.00632263132</v>
-      </c>
-      <c r="I4" s="13">
-        <f t="shared" ref="I4:I8" si="6">M4*$B$20</f>
-        <v>25652.732454890604</v>
-      </c>
-      <c r="K4" s="13">
-        <f t="shared" ref="K4:K8" si="7">M4*$B$21</f>
-        <v>17454.436515698762</v>
-      </c>
-      <c r="M4" s="17">
-        <f t="shared" ref="M4:M8" si="8">BR4*$B$22</f>
-        <v>390609.13232859201</v>
-      </c>
-      <c r="O4" s="17">
-        <f t="shared" ref="O4:O8" si="9">M4*$B$23</f>
-        <v>159999.00139390532</v>
-      </c>
-      <c r="Q4" s="17">
-        <f t="shared" ref="Q4:Q8" si="10">M4*$B$24</f>
-        <v>122974.43908787766</v>
-      </c>
-      <c r="S4" s="17">
-        <f t="shared" ref="S4:S8" si="11">M4*$B$25</f>
-        <v>39140.25158065783</v>
-      </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="17">
-        <f>M4*$B$26</f>
-        <v>68495.440266151214</v>
-      </c>
-      <c r="W4" s="17">
-        <f t="shared" ref="W4:W8" si="12">M4*$B$27</f>
-        <v>110544.7645994255</v>
-      </c>
-      <c r="Y4" s="17">
-        <f t="shared" ref="Y4:Y8" si="13">M4*$B$28</f>
-        <v>38611.329262000298</v>
-      </c>
-      <c r="AC4">
+        <f>H4*$B$21</f>
+        <v>2493.4909308141087</v>
+      </c>
+      <c r="H4" s="16">
+        <f>U4*$B$22</f>
+        <v>55801.304618370275</v>
+      </c>
+      <c r="I4" s="16">
+        <f>H4*$B$23</f>
+        <v>22857.000199129328</v>
+      </c>
+      <c r="J4" s="16">
+        <f>H4*$B$24</f>
+        <v>17567.777012553946</v>
+      </c>
+      <c r="K4" s="16">
+        <f>H4*$B$25</f>
+        <v>5591.4645115225458</v>
+      </c>
+      <c r="L4" s="16">
+        <f>H4*$B$26</f>
+        <v>9785.0628951644558</v>
+      </c>
+      <c r="M4" s="16">
+        <f>H4*$B$27</f>
+        <v>15792.109228489353</v>
+      </c>
+      <c r="N4" s="16">
+        <f>H4*$B$28</f>
+        <v>5515.9041802857555</v>
+      </c>
+      <c r="O4">
         <v>28304</v>
       </c>
-      <c r="BM4" s="13">
-        <f>BS4*BQ4/1000000</f>
-        <v>516757.10532841558</v>
-      </c>
-      <c r="BN4" s="14">
+      <c r="P4" s="13">
         <f t="shared" si="0"/>
-        <v>12165.213329123397</v>
-      </c>
-      <c r="BO4" s="13">
+        <v>73822.443618345074</v>
+      </c>
+      <c r="Q4" s="14">
+        <f>P4*$B$14</f>
+        <v>1737.8876184461992</v>
+      </c>
+      <c r="R4" s="13">
+        <f>P4*$B$15</f>
+        <v>4004.6975555499375</v>
+      </c>
+      <c r="S4" s="15">
+        <f>P4*$B$16</f>
+        <v>68079.858444348938</v>
+      </c>
+      <c r="T4" s="9">
+        <v>343405460</v>
+      </c>
+      <c r="U4" s="10">
         <f t="shared" si="1"/>
-        <v>28032.882888849566</v>
-      </c>
-      <c r="BP4" s="15">
+        <v>99097.374417051644</v>
+      </c>
+      <c r="V4" s="7">
         <f t="shared" si="2"/>
-        <v>476559.0091104426</v>
-      </c>
-      <c r="BQ4" s="9">
-        <v>343405460</v>
-      </c>
-      <c r="BR4" s="10">
-        <f>BT4*BQ4/1000000</f>
-        <v>693681.62091936159</v>
-      </c>
-      <c r="BS4" s="7">
-        <v>1504.80165728412</v>
-      </c>
-      <c r="BT4" s="6">
-        <v>2020.00754711169</v>
-      </c>
-      <c r="BU4" s="7">
-        <v>3524.80920439581</v>
+        <v>214.97166532630285</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" si="2"/>
+        <v>288.5725067302414</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" si="2"/>
+        <v>503.54417205654426</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>589</v>
       </c>
@@ -98933,91 +98701,93 @@
         <v>170</v>
       </c>
       <c r="C5" s="13">
-        <f t="shared" si="3"/>
-        <v>10975.406736182238</v>
+        <f>H5*$B$17</f>
+        <v>1567.9152480260339</v>
+      </c>
+      <c r="D5" s="13">
+        <f>H5*$B$18</f>
+        <v>5052.1713547505533</v>
       </c>
       <c r="E5" s="13">
-        <f t="shared" si="4"/>
-        <v>35365.199483253884</v>
+        <f>H5*$B$19</f>
+        <v>5428.1042504760935</v>
+      </c>
+      <c r="F5" s="13">
+        <f>H5*$B$20</f>
+        <v>889.40221671652205</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" si="5"/>
-        <v>37996.729753332664</v>
-      </c>
-      <c r="I5" s="13">
-        <f t="shared" si="6"/>
-        <v>6225.815517015656</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="shared" si="7"/>
-        <v>4236.121898175601</v>
-      </c>
-      <c r="M5" s="17">
-        <f t="shared" si="8"/>
-        <v>94799.273387960042</v>
-      </c>
-      <c r="O5" s="17">
-        <f t="shared" si="9"/>
-        <v>38831.11739994301</v>
-      </c>
-      <c r="Q5" s="17">
-        <f t="shared" si="10"/>
-        <v>29845.404282600826</v>
-      </c>
-      <c r="S5" s="17">
-        <f t="shared" si="11"/>
-        <v>9499.1824383331659</v>
-      </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="17">
-        <f>M5*$B$26</f>
-        <v>16623.569267083039</v>
-      </c>
-      <c r="W5" s="17">
-        <f t="shared" si="12"/>
-        <v>26828.772021778808</v>
-      </c>
-      <c r="Y5" s="17">
-        <f t="shared" si="13"/>
-        <v>9370.8151080854204</v>
-      </c>
-      <c r="AC5">
+        <f>H5*$B$21</f>
+        <v>605.16027116794294</v>
+      </c>
+      <c r="H5" s="16">
+        <f>U5*$B$22</f>
+        <v>13542.753341137146</v>
+      </c>
+      <c r="I5" s="16">
+        <f>H5*$B$23</f>
+        <v>5547.3024857061428</v>
+      </c>
+      <c r="J5" s="16">
+        <f>H5*$B$24</f>
+        <v>4263.6291832286888</v>
+      </c>
+      <c r="K5" s="16">
+        <f>H5*$B$25</f>
+        <v>1357.0260626190234</v>
+      </c>
+      <c r="L5" s="16">
+        <f>H5*$B$26</f>
+        <v>2374.795609583291</v>
+      </c>
+      <c r="M5" s="16">
+        <f>H5*$B$27</f>
+        <v>3832.6817173969716</v>
+      </c>
+      <c r="N5" s="16">
+        <f>H5*$B$28</f>
+        <v>1338.6878725836314</v>
+      </c>
+      <c r="O5">
         <v>29469</v>
       </c>
-      <c r="BM5" s="13">
-        <f>BS5*BQ5/1000000</f>
-        <v>125414.88165204752</v>
-      </c>
-      <c r="BN5" s="14">
+      <c r="P5" s="13">
         <f t="shared" si="0"/>
-        <v>2952.4485956981503</v>
-      </c>
-      <c r="BO5" s="13">
+        <v>17916.411664578216</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>P5*$B$14</f>
+        <v>421.77837081402146</v>
+      </c>
+      <c r="R5" s="13">
+        <f>P5*$B$15</f>
+        <v>971.92407187578851</v>
+      </c>
+      <c r="S5" s="15">
+        <f>P5*$B$16</f>
+        <v>16522.709221888406</v>
+      </c>
+      <c r="T5" s="9">
+        <v>83343131</v>
+      </c>
+      <c r="U5" s="10">
         <f t="shared" si="1"/>
-        <v>6803.4685031305207</v>
-      </c>
-      <c r="BP5" s="15">
+        <v>24050.536231416889</v>
+      </c>
+      <c r="V5" s="7">
+        <f>V$2/$W$11</f>
+        <v>214.97166532630285</v>
+      </c>
+      <c r="W5" s="7">
         <f t="shared" si="2"/>
-        <v>115658.96455321886</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>83343131</v>
-      </c>
-      <c r="BR5" s="10">
-        <f>BT5*BQ5/1000000</f>
-        <v>168353.75361991825</v>
-      </c>
-      <c r="BS5" s="7">
-        <v>1504.80165728412</v>
-      </c>
-      <c r="BT5" s="6">
-        <v>2020.00754711169</v>
-      </c>
-      <c r="BU5" s="7">
-        <v>3524.80920439581</v>
+        <v>288.5725067302414</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="2"/>
+        <v>503.54417205654426</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>860</v>
       </c>
@@ -99025,91 +98795,93 @@
         <v>441</v>
       </c>
       <c r="C6" s="13">
-        <f t="shared" si="3"/>
-        <v>10661.50056218281</v>
+        <f>H6*$B$17</f>
+        <v>1523.071508883258</v>
+      </c>
+      <c r="D6" s="13">
+        <f>H6*$B$18</f>
+        <v>4907.6748619571654</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" si="4"/>
-        <v>34353.724033700164</v>
+        <f>H6*$B$19</f>
+        <v>5272.855750051981</v>
+      </c>
+      <c r="F6" s="13">
+        <f>H6*$B$20</f>
+        <v>863.96454012676043</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" si="5"/>
-        <v>36909.99025036388</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" si="6"/>
-        <v>6047.7517808873245</v>
-      </c>
-      <c r="K6" s="13">
-        <f t="shared" si="7"/>
-        <v>4114.9651292635408</v>
-      </c>
-      <c r="M6" s="17">
-        <f t="shared" si="8"/>
-        <v>92087.931756397724</v>
-      </c>
-      <c r="O6" s="17">
-        <f t="shared" si="9"/>
-        <v>37720.513684915793</v>
-      </c>
-      <c r="Q6" s="17">
-        <f t="shared" si="10"/>
-        <v>28991.799774356768</v>
-      </c>
-      <c r="S6" s="17">
-        <f t="shared" si="11"/>
-        <v>9227.4975625909701</v>
-      </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="17">
-        <f>M6*$B$26</f>
-        <v>16148.120734534199</v>
-      </c>
-      <c r="W6" s="17">
-        <f t="shared" si="12"/>
-        <v>26061.445818669094</v>
-      </c>
-      <c r="Y6" s="17">
-        <f t="shared" si="13"/>
-        <v>9102.8016495829852</v>
-      </c>
-      <c r="AC6">
+        <f>H6*$B$21</f>
+        <v>587.85216132336279</v>
+      </c>
+      <c r="H6" s="16">
+        <f>U6*$B$22</f>
+        <v>13155.418822342528</v>
+      </c>
+      <c r="I6" s="16">
+        <f>H6*$B$23</f>
+        <v>5388.6448121308258</v>
+      </c>
+      <c r="J6" s="16">
+        <f>H6*$B$24</f>
+        <v>4141.6856820509656</v>
+      </c>
+      <c r="K6" s="16">
+        <f>H6*$B$25</f>
+        <v>1318.2139375129952</v>
+      </c>
+      <c r="L6" s="16">
+        <f>H6*$B$26</f>
+        <v>2306.8743906477421</v>
+      </c>
+      <c r="M6" s="16">
+        <f>H6*$B$27</f>
+        <v>3723.0636883812977</v>
+      </c>
+      <c r="N6" s="16">
+        <f>H6*$B$28</f>
+        <v>1300.4002356547117</v>
+      </c>
+      <c r="O6">
         <v>36212</v>
       </c>
-      <c r="BM6" s="13">
-        <f>BS6*BQ6/1000000</f>
-        <v>121827.90700880256</v>
-      </c>
-      <c r="BN6" s="14">
+      <c r="P6" s="13">
         <f t="shared" si="0"/>
-        <v>2868.0059991836838</v>
-      </c>
-      <c r="BO6" s="13">
+        <v>17403.986715543226</v>
+      </c>
+      <c r="Q6" s="14">
+        <f>P6*$B$14</f>
+        <v>409.71514274052629</v>
+      </c>
+      <c r="R6" s="13">
+        <f>P6*$B$15</f>
+        <v>944.12619848903887</v>
+      </c>
+      <c r="S6" s="15">
+        <f>P6*$B$16</f>
+        <v>16050.145374313661</v>
+      </c>
+      <c r="T6" s="9">
+        <v>80959445</v>
+      </c>
+      <c r="U6" s="10">
         <f t="shared" si="1"/>
-        <v>6608.8833894232712</v>
-      </c>
-      <c r="BP6" s="15">
+        <v>23362.669987139107</v>
+      </c>
+      <c r="V6" s="7">
         <f t="shared" si="2"/>
-        <v>112351.01762019561</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>80959445</v>
-      </c>
-      <c r="BR6" s="10">
-        <f>BT6*BQ6/1000000</f>
-        <v>163538.68990997379</v>
-      </c>
-      <c r="BS6" s="7">
-        <v>1504.80165728412</v>
-      </c>
-      <c r="BT6" s="6">
-        <v>2020.00754711169</v>
-      </c>
-      <c r="BU6" s="7">
-        <v>3524.80920439581</v>
+        <v>214.97166532630285</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="2"/>
+        <v>288.5725067302414</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="2"/>
+        <v>503.54417205654426</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>864</v>
       </c>
@@ -99117,91 +98889,93 @@
         <v>445</v>
       </c>
       <c r="C7" s="13">
-        <f t="shared" si="3"/>
-        <v>3382.6556522475757</v>
+        <f>H7*$B$17</f>
+        <v>483.2365217496536</v>
+      </c>
+      <c r="D7" s="13">
+        <f>H7*$B$18</f>
+        <v>1557.0954589711062</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="4"/>
-        <v>10899.668212797744</v>
+        <f>H7*$B$19</f>
+        <v>1672.9591864081574</v>
+      </c>
+      <c r="F7" s="13">
+        <f>H7*$B$20</f>
+        <v>274.1166234486339</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" si="5"/>
-        <v>11710.714304857103</v>
-      </c>
-      <c r="I7" s="13">
-        <f t="shared" si="6"/>
-        <v>1918.8163641404376</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="7"/>
-        <v>1305.5863920955555</v>
-      </c>
-      <c r="M7" s="17">
-        <f t="shared" si="8"/>
-        <v>29217.440926138417</v>
-      </c>
-      <c r="O7" s="17">
-        <f t="shared" si="9"/>
-        <v>11967.875260875926</v>
-      </c>
-      <c r="Q7" s="17">
-        <f t="shared" si="10"/>
-        <v>9198.449580673232</v>
-      </c>
-      <c r="S7" s="17">
-        <f t="shared" si="11"/>
-        <v>2927.6785762142758</v>
-      </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="17">
-        <f>M7*$B$26</f>
-        <v>5123.4375083749837</v>
-      </c>
-      <c r="W7" s="17">
-        <f t="shared" si="12"/>
-        <v>8268.7138166051845</v>
-      </c>
-      <c r="Y7" s="17">
-        <f t="shared" si="13"/>
-        <v>2888.1153522113805</v>
-      </c>
-      <c r="AC7">
+        <f>H7*$B$21</f>
+        <v>186.5123417279365</v>
+      </c>
+      <c r="H7" s="16">
+        <f>U7*$B$22</f>
+        <v>4173.9201323054876</v>
+      </c>
+      <c r="I7" s="16">
+        <f>H7*$B$23</f>
+        <v>1709.6964658394177</v>
+      </c>
+      <c r="J7" s="16">
+        <f>H7*$B$24</f>
+        <v>1314.0642258104617</v>
+      </c>
+      <c r="K7" s="16">
+        <f>H7*$B$25</f>
+        <v>418.23979660203935</v>
+      </c>
+      <c r="L7" s="16">
+        <f>H7*$B$26</f>
+        <v>731.91964405356896</v>
+      </c>
+      <c r="M7" s="16">
+        <f>H7*$B$27</f>
+        <v>1181.2448309435977</v>
+      </c>
+      <c r="N7" s="16">
+        <f>H7*$B$28</f>
+        <v>412.5879074587686</v>
+      </c>
+      <c r="O7">
         <v>33815</v>
       </c>
-      <c r="BM7" s="13">
-        <f>BS7*BQ7/1000000</f>
-        <v>38653.269850829078</v>
-      </c>
-      <c r="BN7" s="14">
+      <c r="P7" s="13">
         <f t="shared" si="0"/>
-        <v>909.95415206660061</v>
-      </c>
-      <c r="BO7" s="13">
+        <v>5521.8956929755832</v>
+      </c>
+      <c r="Q7" s="14">
+        <f>P7*$B$14</f>
+        <v>129.99345029522868</v>
+      </c>
+      <c r="R7" s="13">
+        <f>P7*$B$15</f>
+        <v>299.55012459335302</v>
+      </c>
+      <c r="S7" s="15">
+        <f>P7*$B$16</f>
+        <v>5092.3521180870011</v>
+      </c>
+      <c r="T7" s="9">
+        <v>25686621</v>
+      </c>
+      <c r="U7" s="10">
         <f t="shared" si="1"/>
-        <v>2096.8508721534708</v>
-      </c>
-      <c r="BP7" s="15">
+        <v>7412.4526113996599</v>
+      </c>
+      <c r="V7" s="7">
         <f t="shared" si="2"/>
-        <v>35646.464826609008</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>25686621</v>
-      </c>
-      <c r="BR7" s="10">
-        <f>BT7*BQ7/1000000</f>
-        <v>51887.168279797625</v>
-      </c>
-      <c r="BS7" s="7">
-        <v>1504.80165728412</v>
-      </c>
-      <c r="BT7" s="6">
-        <v>2020.00754711169</v>
-      </c>
-      <c r="BU7" s="7">
-        <v>3524.80920439581</v>
+        <v>214.97166532630285</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="2"/>
+        <v>288.5725067302414</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="2"/>
+        <v>503.54417205654426</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>536</v>
       </c>
@@ -99209,91 +98983,104 @@
         <v>117</v>
       </c>
       <c r="C8" s="13">
-        <f t="shared" si="3"/>
-        <v>22939.855632994739</v>
+        <f>H8*$B$17</f>
+        <v>3277.1222332849625</v>
+      </c>
+      <c r="D8" s="13">
+        <f>H8*$B$18</f>
+        <v>10559.616085029324</v>
       </c>
       <c r="E8" s="13">
-        <f>M8*$B$18</f>
-        <v>73917.312595205265</v>
+        <f>H8*$B$19</f>
+        <v>11345.358842717531</v>
+      </c>
+      <c r="F8" s="13">
+        <f>H8*$B$20</f>
+        <v>1858.9523779452711</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" si="5"/>
-        <v>79417.51189902272</v>
-      </c>
-      <c r="I8" s="13">
-        <f t="shared" si="6"/>
-        <v>13012.666645616899</v>
-      </c>
-      <c r="K8" s="13">
-        <f t="shared" si="7"/>
-        <v>8853.9793671207772</v>
-      </c>
-      <c r="M8" s="17">
-        <f t="shared" si="8"/>
-        <v>198141.32613996041</v>
-      </c>
-      <c r="O8" s="17">
-        <f t="shared" si="9"/>
-        <v>81161.477531940458</v>
-      </c>
-      <c r="Q8" s="17">
-        <f t="shared" si="10"/>
-        <v>62380.309177441843</v>
-      </c>
-      <c r="S8" s="17">
-        <f t="shared" si="11"/>
-        <v>19854.37797475568</v>
-      </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="17">
-        <f>M8*$B$26</f>
-        <v>34745.161455822439</v>
-      </c>
-      <c r="W8" s="17">
-        <f t="shared" si="12"/>
-        <v>56075.202658431583</v>
-      </c>
-      <c r="Y8" s="17">
-        <f t="shared" si="13"/>
-        <v>19586.075569691417</v>
-      </c>
-      <c r="AC8">
+        <f>H8*$B$21</f>
+        <v>1264.854195302968</v>
+      </c>
+      <c r="H8" s="16">
+        <f>U8*$B$22</f>
+        <v>28305.903734280058</v>
+      </c>
+      <c r="I8" s="16">
+        <f>H8*$B$23</f>
+        <v>11594.496790277208</v>
+      </c>
+      <c r="J8" s="16">
+        <f>H8*$B$24</f>
+        <v>8911.4727396345479</v>
+      </c>
+      <c r="K8" s="16">
+        <f>H8*$B$25</f>
+        <v>2836.3397106793827</v>
+      </c>
+      <c r="L8" s="16">
+        <f>H8*$B$26</f>
+        <v>4963.59449368892</v>
+      </c>
+      <c r="M8" s="16">
+        <f>H8*$B$27</f>
+        <v>8010.7432369187982</v>
+      </c>
+      <c r="N8" s="16">
+        <f>H8*$B$28</f>
+        <v>2798.0107956702022</v>
+      </c>
+      <c r="O8">
         <v>25515</v>
       </c>
-      <c r="BM8" s="13">
-        <f>BS8*BQ8/1000000</f>
-        <v>262131.4497477882</v>
-      </c>
-      <c r="BN8" s="14">
+      <c r="P8" s="13">
         <f t="shared" si="0"/>
-        <v>6170.9553164781255</v>
-      </c>
-      <c r="BO8" s="13">
+        <v>37447.34996396974</v>
+      </c>
+      <c r="Q8" s="14">
+        <f>P8*$B$14</f>
+        <v>881.56504521116074</v>
+      </c>
+      <c r="R8" s="13">
+        <f>P8*$B$15</f>
+        <v>2031.4324954865876</v>
+      </c>
+      <c r="S8" s="15">
+        <f>P8*$B$16</f>
+        <v>34534.352423271994</v>
+      </c>
+      <c r="T8" s="9">
+        <v>174196678</v>
+      </c>
+      <c r="U8" s="10">
         <f t="shared" si="1"/>
-        <v>14220.027468406115</v>
-      </c>
-      <c r="BP8" s="15">
+        <v>50268.372034540698</v>
+      </c>
+      <c r="V8" s="7">
+        <f>V$2/$W$11</f>
+        <v>214.97166532630285</v>
+      </c>
+      <c r="W8" s="7">
         <f t="shared" si="2"/>
-        <v>241740.46696290397</v>
-      </c>
-      <c r="BQ8" s="9">
-        <v>174196678</v>
-      </c>
-      <c r="BR8" s="10">
-        <f>BT8*BQ8/1000000</f>
-        <v>351878.60424178489</v>
-      </c>
-      <c r="BS8" s="7">
-        <v>1504.80165728412</v>
-      </c>
-      <c r="BT8" s="6">
-        <v>2020.00754711169</v>
-      </c>
-      <c r="BU8" s="7">
-        <v>3524.80920439581</v>
+        <v>288.5725067302414</v>
+      </c>
+      <c r="X8" s="7">
+        <f t="shared" si="2"/>
+        <v>503.54417205654426</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U13" s="19">
+        <f>SUM(U3:U8)</f>
+        <v>263595.71075529431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
@@ -99301,7 +99088,7 @@
         <v>2.3541453428863868E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
@@ -99309,7 +99096,7 @@
         <v>5.4247697031729783E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
@@ -99323,7 +99110,7 @@
         <v>911</v>
       </c>
       <c r="B17" s="12">
-        <f>C2/M2</f>
+        <f>C2/H2</f>
         <v>0.11577522004062288</v>
       </c>
     </row>
@@ -99332,7 +99119,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="12">
-        <f>E2/M2</f>
+        <f>D2/H2</f>
         <v>0.37305348679756262</v>
       </c>
     </row>
@@ -99341,7 +99128,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="12">
-        <f>G2/M2</f>
+        <f>E2/H2</f>
         <v>0.40081245768449558</v>
       </c>
     </row>
@@ -99350,7 +99137,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="12">
-        <f>I2/M2</f>
+        <f>F2/H2</f>
         <v>6.567366283006093E-2</v>
       </c>
     </row>
@@ -99359,7 +99146,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="12">
-        <f>K2/M2</f>
+        <f>G2/H2</f>
         <v>4.4685172647257958E-2</v>
       </c>
       <c r="C21" s="12"/>
@@ -99369,7 +99156,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="12">
-        <f>M2/BR2</f>
+        <f>H2/U2</f>
         <v>0.56309569195577569</v>
       </c>
     </row>
@@ -99378,7 +99165,7 @@
         <v>912</v>
       </c>
       <c r="B23">
-        <f>O2/M2</f>
+        <f>I2/H2</f>
         <v>0.40961408259986459</v>
       </c>
     </row>
@@ -99387,7 +99174,7 @@
         <v>913</v>
       </c>
       <c r="B24">
-        <f>Q2/M2</f>
+        <f>J2/H2</f>
         <v>0.31482735274204471</v>
       </c>
     </row>
@@ -99396,7 +99183,7 @@
         <v>914</v>
       </c>
       <c r="B25">
-        <f>S2/M2</f>
+        <f>K2/H2</f>
         <v>0.1002031144211239</v>
       </c>
     </row>
@@ -99405,7 +99192,7 @@
         <v>915</v>
       </c>
       <c r="B26">
-        <f>U2/M2</f>
+        <f>L2/H2</f>
         <v>0.17535545023696683</v>
       </c>
     </row>
@@ -99414,7 +99201,7 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <f>W2/M2</f>
+        <f>M2/H2</f>
         <v>0.28300609343263372</v>
       </c>
     </row>
@@ -99423,7 +99210,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <f>Y2/M2</f>
+        <f>N2/H2</f>
         <v>9.8849018280297907E-2</v>
       </c>
     </row>
